--- a/medicine/Enfance/Affaire_Dmitri_Iakovlev/Affaire_Dmitri_Iakovlev.xlsx
+++ b/medicine/Enfance/Affaire_Dmitri_Iakovlev/Affaire_Dmitri_Iakovlev.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'affaire Dmitri Iakovlev concerne l'adoption et le décès de Dmitri Alekseïévitch Iakovlev (rebaptisé Chase Harrison après son adoption).
 Né le 1er novembre 2006 dans l'oblast de Pskov, Dmitri Iakovlev, handicapé mental, est placé en orphelinat. Il est adopté par un couple américain le 21 février 2008. Le 8 juillet 2008 il meurt d'hyperthermie après que son père l'a oublié dans sa voiture.
@@ -513,7 +525,9 @@
           <t>Adoption</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dima Iakovlev, né le 1er novembre 2006, est placé dans un orphelinat pour enfants atteints de lésions du système nerveux central et de troubles mentaux, dans la région de Petchory, oblast de Pskov. Sa mère, qui a elle-même grandit dans un orphelinat, donne son accord écrit pour une éventuelle adoption. Plusieurs tentatives sont faites alors pour placer l'enfant dans une famille russe.
 Le 21 février 2008, la cour de l'oblast de Pskov autorise l'adoption de Dima par les époux Miles Harrison et Carol-Lynne Eksmann Harrison, qui ont effectué trois voyages en Russie pour adopter un enfant. Miles Harrison est directeur général du cabinet de conseil « Project Solutions Group » à Herndon, dans l'État de Virginie.
@@ -545,7 +559,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 8 juillet 2008, âgé de 21 mois, Dima meurt d'hyperthermie, enfermé dans la GMC Yukon de son père, Miles Harrison. Celui-ci y oublie son enfant pendant 9 heures, sous une température de 32 °C.
 Miles Harrison installe Dima à l'arrière de la Chevrolet, à leur domicile de Purcellville en Virginie. Il parcourt ensuite les 40 km qui le séparent de Herndon, se gare dans un parking près de son lieu de travail, certain d'avoir déposé Dima à la crèche KinderCare de la ville d'Hashburn, sur la route.
@@ -578,7 +594,9 @@
           <t>Procès aux États-Unis</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Poursuivi en justice, Miles Harrison, le père adoptif de Dima, encourt jusqu'à 10 ans de prison pour homicide involontaire (en anglais : manslaughter). Le 17 décembre, le tribunal américain l'acquitte. Les médias rapportent alors des cas similaires, de parents oubliant leurs enfants à l'arrière de leur véhicule, et ceux-ci sont régulièrement innocentés. Certains tribunaux ne jugent même pas les affaires.
 </t>
@@ -609,7 +627,9 @@
           <t>Réactions en Russie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Face à la réaction en Russie suscitée par cette affaire, Miles Harrison déclare dans une interview au Washington Post en février 2009 :
 « Je prie pour que le peuple russe m'accorde son pardon. Il y a des gens bien dans ce pays [les États-Unis] qui méritent d'avoir des enfants, et il y a des enfants, en Russie, qui ont besoin de parents. S'il vous plait, ne nous punissez pas tous par ma faute. »
